--- a/docs/Data/quiz/e4v3/mastic_trees.xlsx
+++ b/docs/Data/quiz/e4v3/mastic_trees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/New Version Exam data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{082FBA75-F7C3-4C92-ABDA-C3E3C2A86997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7740AC81-3DD0-42ED-A5D0-8BA487C8CFEE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9347E9AD-39BB-417C-95F2-44EA9D209DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{46E70C72-0229-4A03-86C0-469A5BDA0C6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46E70C72-0229-4A03-86C0-469A5BDA0C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Usual</t>
+    <t>usual</t>
   </si>
   <si>
-    <t>Slow-release</t>
+    <t>slow_release</t>
   </si>
 </sst>
 </file>
@@ -396,15 +396,15 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.36328125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>17.3</v>
       </c>
@@ -420,7 +420,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>22</v>
       </c>
@@ -428,7 +428,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>19.5</v>
       </c>
@@ -436,7 +436,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>18.7</v>
       </c>
@@ -444,7 +444,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>19.5</v>
       </c>
@@ -452,7 +452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>18.5</v>
       </c>
@@ -460,7 +460,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>18.600000000000001</v>
       </c>
@@ -468,7 +468,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20.3</v>
       </c>
@@ -476,7 +476,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>24.3</v>
       </c>
@@ -484,7 +484,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>23.1</v>
       </c>
@@ -492,7 +492,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26.1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20.5</v>
       </c>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>22.1</v>
       </c>

--- a/docs/Data/quiz/e4v3/mastic_trees.xlsx
+++ b/docs/Data/quiz/e4v3/mastic_trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e4v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\Data\quiz\e4v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9347E9AD-39BB-417C-95F2-44EA9D209DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5AAE98-9D5D-43FC-8F7C-B579BF66E41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46E70C72-0229-4A03-86C0-469A5BDA0C6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{46E70C72-0229-4A03-86C0-469A5BDA0C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,12 +399,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>17.3</v>
       </c>
@@ -420,7 +420,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>22</v>
       </c>
@@ -428,7 +428,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>19.5</v>
       </c>
@@ -436,7 +436,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>18.7</v>
       </c>
@@ -444,7 +444,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>19.5</v>
       </c>
@@ -452,7 +452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>18.5</v>
       </c>
@@ -460,7 +460,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>18.600000000000001</v>
       </c>
@@ -468,7 +468,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20.3</v>
       </c>
@@ -476,7 +476,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>24.3</v>
       </c>
@@ -484,7 +484,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>23.1</v>
       </c>
@@ -492,7 +492,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>26.1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20.5</v>
       </c>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>22.1</v>
       </c>
